--- a/Exercícios-aula3/1.3-exercicio-pclinics/Moldelagem/1.3-exercicio-pclinics-fisico.xlsx
+++ b/Exercícios-aula3/1.3-exercicio-pclinics/Moldelagem/1.3-exercicio-pclinics-fisico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Desenvolvimento de sistemas\Desenvolvimento de Sistemas\Banco de dados\Sprint 1\Exercícios-aula3\1.3-exercicio-pclinics\Moldelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED626530-1557-4565-A77E-A53F9FB3E3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049F6717-40F4-4386-BED1-9021812DF563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5610" yWindow="4710" windowWidth="11985" windowHeight="11835" xr2:uid="{7BB326C2-A4C6-41AD-9312-60B0EFF5D564}"/>
+    <workbookView xWindow="12705" yWindow="870" windowWidth="11985" windowHeight="11835" xr2:uid="{7BB326C2-A4C6-41AD-9312-60B0EFF5D564}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>clinica</t>
   </si>
@@ -154,6 +154,42 @@
   </si>
   <si>
     <t>endereco</t>
+  </si>
+  <si>
+    <t>Rua Manuel Veloso da Costa, 35</t>
+  </si>
+  <si>
+    <t>Rua Duilio, 492</t>
+  </si>
+  <si>
+    <t>descricaoAtendimento</t>
+  </si>
+  <si>
+    <t>Foi realizado a  aplicação de vacinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O animal foi medicado </t>
+  </si>
+  <si>
+    <t>Foram feitos curativos no animal</t>
+  </si>
+  <si>
+    <t>Foi realizado um diagnóstico por imagem</t>
+  </si>
+  <si>
+    <t>crmv</t>
+  </si>
+  <si>
+    <t>6413-SP</t>
+  </si>
+  <si>
+    <t>4142-SP</t>
+  </si>
+  <si>
+    <t>7347-SP</t>
+  </si>
+  <si>
+    <t>3715-SP</t>
   </si>
 </sst>
 </file>
@@ -361,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,12 +405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,73 +414,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -508,13 +493,73 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -831,400 +876,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1FF83E-DB9A-4B54-9CD9-1720F9D1F2A3}">
-  <dimension ref="B2:Q14"/>
+  <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="50"/>
-      <c r="D2" s="4"/>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="51"/>
+      <c r="F2" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="J2" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="28">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="20">
+        <v>1</v>
+      </c>
+      <c r="K4" s="20">
+        <v>2</v>
+      </c>
+      <c r="L4" s="20">
         <v>3</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="9"/>
-      <c r="J2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="36" t="s">
+      <c r="M4" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="6">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="29">
+        <v>2</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="20">
+        <v>2</v>
+      </c>
+      <c r="K5" s="20">
+        <v>3</v>
+      </c>
+      <c r="L5" s="20">
         <v>4</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="33">
-        <v>1</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="F4" s="35">
-        <v>1</v>
-      </c>
-      <c r="G4" s="51">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="37">
-        <v>1</v>
-      </c>
-      <c r="K4" s="37">
-        <v>2</v>
-      </c>
-      <c r="L4" s="37">
-        <v>3</v>
-      </c>
-      <c r="M4" s="13">
-        <v>44306</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="34">
-        <v>2</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="F5" s="35">
-        <v>2</v>
-      </c>
-      <c r="G5" s="35">
-        <v>2</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="37">
-        <v>2</v>
-      </c>
-      <c r="K5" s="37">
-        <v>3</v>
-      </c>
-      <c r="L5" s="37">
-        <v>4</v>
-      </c>
-      <c r="M5" s="13">
+      <c r="M5" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="6">
         <v>44307</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
-      <c r="F6" s="35">
+      <c r="J6" s="20">
         <v>3</v>
       </c>
-      <c r="G6" s="35">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="37">
-        <v>3</v>
-      </c>
-      <c r="K6" s="37">
+      <c r="K6" s="20">
         <v>4</v>
       </c>
-      <c r="L6" s="37">
-        <v>2</v>
-      </c>
-      <c r="M6" s="13">
+      <c r="L6" s="20">
+        <v>2</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="6">
         <v>44308</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="F7" s="36">
+      <c r="J7" s="21">
         <v>4</v>
       </c>
-      <c r="G7" s="36">
-        <v>2</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="K7" s="21">
+        <v>1</v>
+      </c>
+      <c r="L7" s="21">
+        <v>1</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="7">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="F9" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
+      <c r="L9" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="43"/>
+      <c r="N9" s="44"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="22">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="24">
+        <v>1</v>
+      </c>
+      <c r="G11" s="24">
+        <v>3</v>
+      </c>
+      <c r="H11" s="24">
+        <v>2</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="10">
+        <v>40440</v>
+      </c>
+      <c r="L11" s="26">
+        <v>1</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="22">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="F12" s="24">
+        <v>2</v>
+      </c>
+      <c r="G12" s="24">
+        <v>4</v>
+      </c>
+      <c r="H12" s="24">
+        <v>1</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="10">
+        <v>42122</v>
+      </c>
+      <c r="L12" s="26">
+        <v>2</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="22">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="F13" s="24">
+        <v>3</v>
+      </c>
+      <c r="G13" s="24">
+        <v>2</v>
+      </c>
+      <c r="H13" s="24">
+        <v>4</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="10">
+        <v>42962</v>
+      </c>
+      <c r="L13" s="26">
+        <v>3</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="23">
+        <v>4</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="25">
+        <v>4</v>
+      </c>
+      <c r="G14" s="25">
+        <v>1</v>
+      </c>
+      <c r="H14" s="25">
+        <v>3</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="11">
+        <v>43912</v>
+      </c>
+      <c r="L14" s="27">
+        <v>4</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F16" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="33">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="18">
+        <v>2</v>
+      </c>
+      <c r="G19" s="18">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="18">
+        <v>3</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="19">
+        <v>4</v>
+      </c>
+      <c r="G21" s="19">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="38">
-        <v>4</v>
-      </c>
-      <c r="K7" s="38">
-        <v>1</v>
-      </c>
-      <c r="L7" s="38">
-        <v>1</v>
-      </c>
-      <c r="M7" s="14">
-        <v>44309</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="F9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
-      <c r="L9" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="26"/>
-      <c r="P9" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="30"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="39">
-        <v>1</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="F11" s="41">
-        <v>1</v>
-      </c>
-      <c r="G11" s="41">
-        <v>3</v>
-      </c>
-      <c r="H11" s="41">
-        <v>2</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="22">
-        <v>40440</v>
-      </c>
-      <c r="L11" s="43">
-        <v>1</v>
-      </c>
-      <c r="M11" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="27">
-        <v>1</v>
-      </c>
-      <c r="P11" s="45">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="39">
-        <v>2</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="F12" s="41">
-        <v>2</v>
-      </c>
-      <c r="G12" s="41">
-        <v>4</v>
-      </c>
-      <c r="H12" s="41">
-        <v>1</v>
-      </c>
-      <c r="I12" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="22">
-        <v>42122</v>
-      </c>
-      <c r="L12" s="43">
-        <v>2</v>
-      </c>
-      <c r="M12" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" s="27">
-        <v>1</v>
-      </c>
-      <c r="P12" s="46">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="39">
-        <v>3</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="F13" s="41">
-        <v>3</v>
-      </c>
-      <c r="G13" s="41">
-        <v>2</v>
-      </c>
-      <c r="H13" s="41">
-        <v>4</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="22">
-        <v>42962</v>
-      </c>
-      <c r="L13" s="43">
-        <v>3</v>
-      </c>
-      <c r="M13" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="40">
-        <v>4</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="F14" s="42">
-        <v>4</v>
-      </c>
-      <c r="G14" s="42">
-        <v>1</v>
-      </c>
-      <c r="H14" s="42">
-        <v>3</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="23">
-        <v>43912</v>
-      </c>
-      <c r="L14" s="44">
-        <v>4</v>
-      </c>
-      <c r="M14" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="28">
-        <v>2</v>
+      <c r="I21" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="F9:J9"/>
     <mergeCell ref="L9:N9"/>
-    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="J2:M2"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
